--- a/myData/RAN 7-26-18 BETA GAL RAN11, RAN12, RAN13.xlsx
+++ b/myData/RAN 7-26-18 BETA GAL RAN11, RAN12, RAN13.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royam\Documents\RpoSResearch\betaGal-analysis\myData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documents\betaGal-analysis\myData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7D3A12-F1F6-4AB3-93FE-0F2A82F86ECB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22992" windowHeight="13860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="121">
   <si>
     <t>A</t>
   </si>
@@ -369,9 +368,6 @@
     <t>RAN</t>
   </si>
   <si>
-    <t>2018-07-24</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
@@ -385,12 +381,15 @@
   </si>
   <si>
     <t>CRD38</t>
+  </si>
+  <si>
+    <t>2018-07-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -928,16 +927,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:I103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1</v>
@@ -976,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>-3.44628761070093E+16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
@@ -1289,7 +1288,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
@@ -1306,7 +1305,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
@@ -1323,7 +1322,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
@@ -1350,7 +1349,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
@@ -1367,7 +1366,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
@@ -1384,7 +1383,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
@@ -1401,7 +1400,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
@@ -1445,7 +1444,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13" t="s">
@@ -1462,7 +1461,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13" t="s">
@@ -1479,7 +1478,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
@@ -1506,7 +1505,7 @@
         <v>4.3159999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13" t="s">
@@ -1523,7 +1522,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
@@ -1540,7 +1539,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
@@ -1557,7 +1556,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>36</v>
       </c>
@@ -1584,7 +1583,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13" t="s">
@@ -1601,7 +1600,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13" t="s">
@@ -1618,7 +1617,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13" t="s">
@@ -1635,7 +1634,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>41</v>
       </c>
@@ -1662,7 +1661,7 @@
         <v>3.048</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13" t="s">
@@ -1679,7 +1678,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13" t="s">
@@ -1696,7 +1695,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13" t="s">
@@ -1713,7 +1712,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>46</v>
       </c>
@@ -1740,7 +1739,7 @@
         <v>4.258</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13" t="s">
@@ -1757,7 +1756,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
@@ -1774,7 +1773,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13" t="s">
@@ -1791,7 +1790,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>51</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>30.718</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13" t="s">
@@ -1835,7 +1834,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13" t="s">
@@ -1852,7 +1851,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13" t="s">
@@ -1869,7 +1868,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>56</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>8.5239999999999991</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13" t="s">
@@ -1913,7 +1912,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13" t="s">
@@ -1930,7 +1929,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13" t="s">
@@ -1947,7 +1946,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>61</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>5.0579999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13" t="s">
@@ -1991,7 +1990,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
@@ -2008,7 +2007,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13" t="s">
@@ -2025,7 +2024,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="2">
         <v>1</v>
@@ -2064,7 +2063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -2264,7 +2263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>16</v>
       </c>
@@ -2360,7 +2359,7 @@
         <v>1.33127908207854E+16</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13" t="s">
@@ -2377,7 +2376,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13" t="s">
@@ -2394,7 +2393,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13" t="s">
@@ -2411,7 +2410,7 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
         <v>21</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>7.0549999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13" t="s">
@@ -2455,7 +2454,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13" t="s">
@@ -2472,7 +2471,7 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13" t="s">
@@ -2489,7 +2488,7 @@
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
         <v>26</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>5.2880000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13" t="s">
@@ -2533,7 +2532,7 @@
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13" t="s">
@@ -2550,7 +2549,7 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13" t="s">
@@ -2567,7 +2566,7 @@
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
         <v>31</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>2.198</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13" t="s">
@@ -2611,7 +2610,7 @@
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13" t="s">
@@ -2628,7 +2627,7 @@
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
@@ -2645,7 +2644,7 @@
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
         <v>36</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>3.0569999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
@@ -2689,7 +2688,7 @@
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
@@ -2706,7 +2705,7 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
@@ -2723,7 +2722,7 @@
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
         <v>41</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>9.8490000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
@@ -2767,7 +2766,7 @@
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13" t="s">
@@ -2784,7 +2783,7 @@
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
@@ -2801,7 +2800,7 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
         <v>46</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>10.077999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13" t="s">
@@ -2845,7 +2844,7 @@
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
@@ -2862,7 +2861,7 @@
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
@@ -2879,7 +2878,7 @@
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
         <v>51</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>3.3010000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13" t="s">
@@ -2923,7 +2922,7 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13" t="s">
@@ -2940,7 +2939,7 @@
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13" t="s">
@@ -2957,7 +2956,7 @@
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="s">
         <v>56</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>4.3970000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13" t="s">
@@ -3001,7 +3000,7 @@
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13" t="s">
@@ -3018,7 +3017,7 @@
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13" t="s">
@@ -3035,7 +3034,7 @@
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="s">
         <v>61</v>
       </c>
@@ -3062,7 +3061,7 @@
         <v>5.5860000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13" t="s">
@@ -3079,7 +3078,7 @@
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13" t="s">
@@ -3096,7 +3095,7 @@
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13" t="s">
@@ -3120,1682 +3119,1642 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J12" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="10.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2">
+      <c r="C1" s="2">
         <v>420</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I1" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="J1" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="13">
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="D2" s="13">
+        <v>-1E-3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="H2" s="13">
+        <v>-3.44628761070093E+16</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E2" s="13">
-        <v>-1E-3</v>
-      </c>
-      <c r="F2" s="13">
-        <v>4</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>2E-3</v>
-      </c>
-      <c r="I2" s="13">
-        <v>-3.44628761070093E+16</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="13">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E3" s="13">
         <v>-2E-3</v>
       </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="19" t="s">
+      <c r="I3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" t="s">
         <v>115</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="20" t="s">
         <v>116</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O3" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="P3" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>19</v>
       </c>
+      <c r="C4" s="13">
+        <v>5.5E-2</v>
+      </c>
       <c r="D4" s="13">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E4" s="13">
         <v>0</v>
       </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K4" s="19" t="s">
+      <c r="I4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" t="s">
         <v>115</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="20" t="s">
         <v>116</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="C5" s="13">
+        <v>5.7000000000000002E-2</v>
+      </c>
       <c r="D5" s="13">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E5" s="13">
         <v>2E-3</v>
       </c>
+      <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K5" s="19" t="s">
+      <c r="I5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" t="s">
         <v>115</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="20" t="s">
         <v>116</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="C6" s="13">
+        <v>6.8000000000000005E-2</v>
+      </c>
       <c r="D6" s="13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="H6" s="13">
+        <v>6.22</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>0.1</v>
+      </c>
+      <c r="O6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="13">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E6" s="13">
+      <c r="D7" s="13">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F6" s="13">
-        <v>4</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1.4E-2</v>
-      </c>
-      <c r="H6" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="I6" s="13">
-        <v>6.22</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" t="s">
-        <v>118</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6">
-        <v>0.1</v>
-      </c>
-      <c r="P6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="13">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E7" s="13">
-        <v>1.2999999999999999E-2</v>
-      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" t="s">
-        <v>118</v>
+      <c r="I7" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O7">
-        <v>0.1</v>
-      </c>
-      <c r="P7">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="C8" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="D8" s="13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E8" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8" t="s">
-        <v>118</v>
+      <c r="I8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O8">
-        <v>0.1</v>
-      </c>
-      <c r="P8">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="13">
+        <v>6.8000000000000005E-2</v>
+      </c>
       <c r="D9" s="13">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E9" s="13">
         <v>1.4E-2</v>
       </c>
+      <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" t="s">
-        <v>118</v>
+      <c r="I9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N9">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O9">
-        <v>0.1</v>
-      </c>
-      <c r="P9">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="C10" s="13">
+        <v>0.24099999999999999</v>
+      </c>
       <c r="D10" s="13">
-        <v>0.24099999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="E10" s="13">
-        <v>0.186</v>
+        <v>4</v>
       </c>
       <c r="F10" s="13">
-        <v>4</v>
+        <v>0.188</v>
       </c>
       <c r="G10" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>0.1</v>
+      </c>
+      <c r="O10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D11" s="13">
         <v>0.188</v>
       </c>
-      <c r="H10" s="13">
-        <v>2E-3</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10">
-        <v>26</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>0.1</v>
-      </c>
-      <c r="P10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.188</v>
-      </c>
+      <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" t="s">
-        <v>118</v>
+      <c r="I11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11">
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N11">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O11">
-        <v>0.1</v>
-      </c>
-      <c r="P11">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="C12" s="13">
+        <v>0.24199999999999999</v>
+      </c>
       <c r="D12" s="13">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="E12" s="13">
         <v>0.187</v>
       </c>
+      <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" t="s">
-        <v>118</v>
+      <c r="I12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12">
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O12">
-        <v>0.1</v>
-      </c>
-      <c r="P12">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="C13" s="13">
+        <v>0.245</v>
+      </c>
       <c r="D13" s="13">
-        <v>0.245</v>
-      </c>
-      <c r="E13" s="13">
         <v>0.19</v>
       </c>
+      <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" t="s">
-        <v>118</v>
+      <c r="I13" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13">
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O13">
-        <v>0.1</v>
-      </c>
-      <c r="P13">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>32</v>
       </c>
+      <c r="C14" s="13">
+        <v>0.57899999999999996</v>
+      </c>
       <c r="D14" s="13">
-        <v>0.57899999999999996</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="E14" s="13">
-        <v>0.52500000000000002</v>
+        <v>4</v>
       </c>
       <c r="F14" s="13">
-        <v>4</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="G14" s="13">
-        <v>0.52800000000000002</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H14" s="13">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I14" s="13">
         <v>4.3159999999999998</v>
       </c>
-      <c r="J14" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" t="s">
-        <v>118</v>
+      <c r="I14" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14">
+        <v>89</v>
       </c>
       <c r="M14">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O14">
-        <v>0.1</v>
-      </c>
-      <c r="P14">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>33</v>
       </c>
+      <c r="C15" s="13">
+        <v>0.55100000000000005</v>
+      </c>
       <c r="D15" s="13">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="E15" s="13">
         <v>0.497</v>
       </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" t="s">
-        <v>118</v>
+      <c r="I15" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15">
+        <v>89</v>
       </c>
       <c r="M15">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O15">
-        <v>0.1</v>
-      </c>
-      <c r="P15">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="13" t="s">
         <v>34</v>
       </c>
+      <c r="C16" s="13">
+        <v>0.59899999999999998</v>
+      </c>
       <c r="D16" s="13">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="E16" s="13">
         <v>0.54500000000000004</v>
       </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" t="s">
-        <v>118</v>
+      <c r="I16" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16">
+        <v>89</v>
       </c>
       <c r="M16">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O16">
-        <v>0.1</v>
-      </c>
-      <c r="P16">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
+      <c r="C17" s="13">
+        <v>0.59899999999999998</v>
+      </c>
       <c r="D17" s="13">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="E17" s="13">
         <v>0.54400000000000004</v>
       </c>
+      <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" t="s">
-        <v>118</v>
+      <c r="I17" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17">
+        <v>89</v>
       </c>
       <c r="M17">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O17">
-        <v>0.1</v>
-      </c>
-      <c r="P17">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>37</v>
       </c>
+      <c r="C18" s="13">
+        <v>0.13300000000000001</v>
+      </c>
       <c r="D18" s="13">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>4</v>
+      </c>
+      <c r="F18" s="13">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="H18" s="13">
+        <v>2.125</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>0.1</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="13">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E18" s="13">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="F18" s="13">
-        <v>4</v>
-      </c>
-      <c r="G18" s="13">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="H18" s="13">
-        <v>2E-3</v>
-      </c>
-      <c r="I18" s="13">
-        <v>2.125</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L18" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>10</v>
-      </c>
-      <c r="O18">
-        <v>0.1</v>
-      </c>
-      <c r="P18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="D19" s="13">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E19" s="13">
         <v>7.8E-2</v>
       </c>
+      <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" t="s">
-        <v>119</v>
+      <c r="I19" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N19">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O19">
-        <v>0.1</v>
-      </c>
-      <c r="P19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="C20" s="13">
+        <v>0.13600000000000001</v>
+      </c>
       <c r="D20" s="13">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E20" s="13">
         <v>8.2000000000000003E-2</v>
       </c>
+      <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" t="s">
-        <v>119</v>
+      <c r="I20" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N20">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O20">
-        <v>0.1</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>40</v>
       </c>
+      <c r="C21" s="13">
+        <v>0.13300000000000001</v>
+      </c>
       <c r="D21" s="13">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E21" s="13">
         <v>7.9000000000000001E-2</v>
       </c>
+      <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" t="s">
-        <v>119</v>
+      <c r="I21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N21">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O21">
-        <v>0.1</v>
-      </c>
-      <c r="P21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="C22" s="13">
+        <v>0.29299999999999998</v>
+      </c>
       <c r="D22" s="13">
-        <v>0.29299999999999998</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="E22" s="13">
-        <v>0.23899999999999999</v>
+        <v>4</v>
       </c>
       <c r="F22" s="13">
-        <v>4</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="G22" s="13">
-        <v>0.23100000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H22" s="13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I22" s="13">
         <v>3.048</v>
       </c>
-      <c r="J22" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" t="s">
-        <v>119</v>
+      <c r="I22" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22">
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N22">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O22">
-        <v>0.1</v>
-      </c>
-      <c r="P22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>43</v>
       </c>
+      <c r="C23" s="13">
+        <v>0.28799999999999998</v>
+      </c>
       <c r="D23" s="13">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="E23" s="13">
         <v>0.23400000000000001</v>
       </c>
+      <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" t="s">
-        <v>119</v>
+      <c r="I23" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23">
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N23">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O23">
-        <v>0.1</v>
-      </c>
-      <c r="P23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="C24" s="13">
+        <v>0.28100000000000003</v>
+      </c>
       <c r="D24" s="13">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="E24" s="13">
         <v>0.22700000000000001</v>
       </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L24" t="s">
-        <v>119</v>
+      <c r="I24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24">
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O24">
-        <v>0.1</v>
-      </c>
-      <c r="P24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>45</v>
       </c>
+      <c r="C25" s="13">
+        <v>0.27800000000000002</v>
+      </c>
       <c r="D25" s="13">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="E25" s="13">
         <v>0.223</v>
       </c>
+      <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" t="s">
-        <v>119</v>
+      <c r="I25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25">
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N25">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O25">
-        <v>0.1</v>
-      </c>
-      <c r="P25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="C26" s="13">
+        <v>0.27400000000000002</v>
+      </c>
       <c r="D26" s="13">
-        <v>0.27400000000000002</v>
+        <v>0.22</v>
       </c>
       <c r="E26" s="13">
-        <v>0.22</v>
+        <v>4</v>
       </c>
       <c r="F26" s="13">
-        <v>4</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="G26" s="13">
-        <v>0.22700000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="H26" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="I26" s="13">
         <v>4.258</v>
       </c>
-      <c r="J26" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L26" t="s">
-        <v>119</v>
+      <c r="I26" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26">
+        <v>89</v>
       </c>
       <c r="M26">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O26">
-        <v>0.1</v>
-      </c>
-      <c r="P26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>48</v>
       </c>
+      <c r="C27" s="13">
+        <v>0.27300000000000002</v>
+      </c>
       <c r="D27" s="13">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E27" s="13">
         <v>0.219</v>
       </c>
+      <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L27" t="s">
-        <v>119</v>
+      <c r="I27" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" t="s">
+        <v>118</v>
+      </c>
+      <c r="L27">
+        <v>89</v>
       </c>
       <c r="M27">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="N27">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O27">
-        <v>0.1</v>
-      </c>
-      <c r="P27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="13" t="s">
         <v>49</v>
       </c>
+      <c r="C28" s="13">
+        <v>0.28499999999999998</v>
+      </c>
       <c r="D28" s="13">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E28" s="13">
         <v>0.23</v>
       </c>
+      <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L28" t="s">
-        <v>119</v>
+      <c r="I28" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28">
+        <v>89</v>
       </c>
       <c r="M28">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="N28">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O28">
-        <v>0.1</v>
-      </c>
-      <c r="P28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>50</v>
       </c>
+      <c r="C29" s="13">
+        <v>0.29299999999999998</v>
+      </c>
       <c r="D29" s="13">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="E29" s="13">
         <v>0.23899999999999999</v>
       </c>
+      <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L29" t="s">
-        <v>119</v>
+      <c r="I29" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29">
+        <v>89</v>
       </c>
       <c r="M29">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="N29">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="O29">
-        <v>0.1</v>
-      </c>
-      <c r="P29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>52</v>
       </c>
+      <c r="C30" s="13">
+        <v>5.5E-2</v>
+      </c>
       <c r="D30" s="13">
-        <v>5.5E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E30" s="13">
-        <v>1E-3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="13">
-        <v>4</v>
+        <v>2E-3</v>
       </c>
       <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>30.718</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>0.1</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="13">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D31" s="13">
         <v>2E-3</v>
       </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13">
-        <v>30.718</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L30" t="s">
-        <v>120</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>100</v>
-      </c>
-      <c r="O30">
-        <v>0.1</v>
-      </c>
-      <c r="P30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="13">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E31" s="13">
-        <v>2E-3</v>
-      </c>
+      <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L31" t="s">
-        <v>120</v>
+      <c r="I31" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N31">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="O31">
-        <v>0.1</v>
-      </c>
-      <c r="P31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>54</v>
       </c>
+      <c r="C32" s="13">
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="D32" s="13">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E32" s="13">
         <v>2E-3</v>
       </c>
+      <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L32" t="s">
-        <v>120</v>
+      <c r="I32" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K32" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="O32">
-        <v>0.1</v>
-      </c>
-      <c r="P32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>55</v>
       </c>
+      <c r="C33" s="13">
+        <v>5.7000000000000002E-2</v>
+      </c>
       <c r="D33" s="13">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E33" s="13">
         <v>2E-3</v>
       </c>
+      <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L33" t="s">
-        <v>120</v>
+      <c r="I33" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" t="s">
+        <v>119</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="O33">
-        <v>0.1</v>
-      </c>
-      <c r="P33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>57</v>
       </c>
+      <c r="C34" s="13">
+        <v>9.7000000000000003E-2</v>
+      </c>
       <c r="D34" s="13">
-        <v>9.7000000000000003E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E34" s="13">
-        <v>4.2000000000000003E-2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="13">
-        <v>4</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G34" s="13">
-        <v>4.2999999999999997E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H34" s="13">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I34" s="13">
         <v>8.5239999999999991</v>
       </c>
-      <c r="J34" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L34" t="s">
-        <v>120</v>
+      <c r="I34" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" t="s">
+        <v>119</v>
+      </c>
+      <c r="L34">
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="N34">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="O34">
-        <v>0.1</v>
-      </c>
-      <c r="P34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>58</v>
       </c>
+      <c r="C35" s="13">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="D35" s="13">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E35" s="13">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L35" t="s">
-        <v>120</v>
+      <c r="I35" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35">
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="N35">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="O35">
-        <v>0.1</v>
-      </c>
-      <c r="P35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>59</v>
       </c>
+      <c r="C36" s="13">
+        <v>9.7000000000000003E-2</v>
+      </c>
       <c r="D36" s="13">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="E36" s="13">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L36" t="s">
-        <v>120</v>
+      <c r="I36" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" t="s">
+        <v>119</v>
+      </c>
+      <c r="L36">
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="N36">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="O36">
-        <v>0.1</v>
-      </c>
-      <c r="P36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>60</v>
       </c>
+      <c r="C37" s="13">
+        <v>0.10299999999999999</v>
+      </c>
       <c r="D37" s="13">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="E37" s="13">
         <v>4.9000000000000002E-2</v>
       </c>
+      <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L37" t="s">
-        <v>120</v>
+      <c r="I37" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37">
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="N37">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="O37">
-        <v>0.1</v>
-      </c>
-      <c r="P37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>62</v>
       </c>
+      <c r="C38" s="13">
+        <v>0.88100000000000001</v>
+      </c>
       <c r="D38" s="13">
-        <v>0.88100000000000001</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="E38" s="13">
-        <v>0.82699999999999996</v>
+        <v>4</v>
       </c>
       <c r="F38" s="13">
-        <v>4</v>
+        <v>0.89</v>
       </c>
       <c r="G38" s="13">
-        <v>0.89</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H38" s="13">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I38" s="13">
         <v>5.0579999999999998</v>
       </c>
-      <c r="J38" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L38" t="s">
-        <v>120</v>
+      <c r="I38" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" t="s">
+        <v>119</v>
+      </c>
+      <c r="L38">
+        <v>89</v>
       </c>
       <c r="M38">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N38">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="O38">
-        <v>0.1</v>
-      </c>
-      <c r="P38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="13" t="s">
         <v>63</v>
       </c>
+      <c r="C39" s="13">
+        <v>0.94499999999999995</v>
+      </c>
       <c r="D39" s="13">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="E39" s="13">
         <v>0.89100000000000001</v>
       </c>
+      <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L39" t="s">
-        <v>120</v>
+      <c r="I39" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" t="s">
+        <v>119</v>
+      </c>
+      <c r="L39">
+        <v>89</v>
       </c>
       <c r="M39">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N39">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="O39">
-        <v>0.1</v>
-      </c>
-      <c r="P39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>64</v>
       </c>
+      <c r="C40" s="13">
+        <v>0.96399999999999997</v>
+      </c>
       <c r="D40" s="13">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="E40" s="13">
         <v>0.90900000000000003</v>
       </c>
+      <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L40" t="s">
-        <v>120</v>
+      <c r="I40" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K40" t="s">
+        <v>119</v>
+      </c>
+      <c r="L40">
+        <v>89</v>
       </c>
       <c r="M40">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N40">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="O40">
-        <v>0.1</v>
-      </c>
-      <c r="P40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="C41" s="13">
+        <v>0.98599999999999999</v>
+      </c>
       <c r="D41" s="13">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="E41" s="13">
         <v>0.93100000000000005</v>
       </c>
+      <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L41" t="s">
-        <v>120</v>
+      <c r="I41" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" t="s">
+        <v>119</v>
+      </c>
+      <c r="L41">
+        <v>89</v>
       </c>
       <c r="M41">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N41">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="O41">
-        <v>0.1</v>
-      </c>
-      <c r="P41">
         <v>10</v>
       </c>
     </row>
@@ -4805,18 +4764,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="10.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -4855,8 +4817,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="B2" s="13" t="s">
         <v>67</v>
       </c>
@@ -4882,19 +4846,19 @@
         <v>114</v>
       </c>
       <c r="J2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
         <v>115</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="20" t="s">
-        <v>117</v>
-      </c>
       <c r="M2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13" t="s">
         <v>68</v>
@@ -4913,19 +4877,19 @@
         <v>114</v>
       </c>
       <c r="J3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" t="s">
         <v>115</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="20" t="s">
-        <v>117</v>
-      </c>
       <c r="M3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>69</v>
@@ -4944,19 +4908,19 @@
         <v>114</v>
       </c>
       <c r="J4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" t="s">
         <v>115</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="20" t="s">
-        <v>117</v>
-      </c>
       <c r="M4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
         <v>70</v>
@@ -4975,20 +4939,22 @@
         <v>114</v>
       </c>
       <c r="J5" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" t="s">
         <v>115</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="20" t="s">
-        <v>117</v>
-      </c>
       <c r="M5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="B6" s="13" t="s">
         <v>71</v>
       </c>
@@ -5014,10 +4980,10 @@
         <v>114</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5026,7 +4992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
         <v>72</v>
@@ -5045,10 +5011,10 @@
         <v>114</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -5057,7 +5023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
         <v>73</v>
@@ -5076,10 +5042,10 @@
         <v>114</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -5088,7 +5054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
         <v>74</v>
@@ -5107,10 +5073,10 @@
         <v>114</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5119,8 +5085,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" s="13" t="s">
         <v>75</v>
       </c>
@@ -5146,10 +5114,10 @@
         <v>114</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L10">
         <v>26</v>
@@ -5158,7 +5126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="13" t="s">
         <v>76</v>
@@ -5177,10 +5145,10 @@
         <v>114</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L11">
         <v>26</v>
@@ -5189,7 +5157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="13" t="s">
         <v>77</v>
@@ -5208,10 +5176,10 @@
         <v>114</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L12">
         <v>26</v>
@@ -5220,7 +5188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
         <v>78</v>
@@ -5239,10 +5207,10 @@
         <v>114</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13">
         <v>26</v>
@@ -5251,8 +5219,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="B14" s="13" t="s">
         <v>79</v>
       </c>
@@ -5278,10 +5248,10 @@
         <v>114</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L14">
         <v>89</v>
@@ -5290,7 +5260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
         <v>80</v>
@@ -5309,10 +5279,10 @@
         <v>114</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L15">
         <v>89</v>
@@ -5321,7 +5291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>81</v>
@@ -5340,10 +5310,10 @@
         <v>114</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L16">
         <v>89</v>
@@ -5352,7 +5322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
         <v>82</v>
@@ -5371,10 +5341,10 @@
         <v>114</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L17">
         <v>89</v>
@@ -5383,8 +5353,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="B18" s="13" t="s">
         <v>83</v>
       </c>
@@ -5410,10 +5382,10 @@
         <v>114</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -5422,7 +5394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
         <v>84</v>
@@ -5441,10 +5413,10 @@
         <v>114</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -5453,7 +5425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
         <v>85</v>
@@ -5472,10 +5444,10 @@
         <v>114</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -5484,7 +5456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
         <v>86</v>
@@ -5503,10 +5475,10 @@
         <v>114</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -5515,8 +5487,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="B22" s="13" t="s">
         <v>87</v>
       </c>
@@ -5542,10 +5516,10 @@
         <v>114</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L22">
         <v>26</v>
@@ -5554,7 +5528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
         <v>88</v>
@@ -5573,10 +5547,10 @@
         <v>114</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L23">
         <v>26</v>
@@ -5585,7 +5559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
         <v>89</v>
@@ -5604,10 +5578,10 @@
         <v>114</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L24">
         <v>26</v>
@@ -5616,7 +5590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
         <v>90</v>
@@ -5635,10 +5609,10 @@
         <v>114</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L25">
         <v>26</v>
@@ -5647,8 +5621,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="B26" s="13" t="s">
         <v>91</v>
       </c>
@@ -5674,10 +5650,10 @@
         <v>114</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L26">
         <v>89</v>
@@ -5686,7 +5662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
         <v>92</v>
@@ -5705,10 +5681,10 @@
         <v>114</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L27">
         <v>89</v>
@@ -5717,7 +5693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="13" t="s">
         <v>93</v>
@@ -5736,10 +5712,10 @@
         <v>114</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L28">
         <v>89</v>
@@ -5748,7 +5724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
         <v>94</v>
@@ -5767,10 +5743,10 @@
         <v>114</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L29">
         <v>89</v>
@@ -5779,8 +5755,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="B30" s="13" t="s">
         <v>95</v>
       </c>
@@ -5806,10 +5784,10 @@
         <v>114</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -5818,7 +5796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
         <v>96</v>
@@ -5837,10 +5815,10 @@
         <v>114</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -5849,7 +5827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>97</v>
@@ -5868,10 +5846,10 @@
         <v>114</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -5880,7 +5858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
         <v>98</v>
@@ -5899,10 +5877,10 @@
         <v>114</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -5911,8 +5889,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="B34" s="13" t="s">
         <v>99</v>
       </c>
@@ -5938,10 +5918,10 @@
         <v>114</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L34">
         <v>26</v>
@@ -5950,7 +5930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
         <v>100</v>
@@ -5969,10 +5949,10 @@
         <v>114</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L35">
         <v>26</v>
@@ -5981,7 +5961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>101</v>
@@ -6000,10 +5980,10 @@
         <v>114</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L36">
         <v>26</v>
@@ -6012,7 +5992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
         <v>102</v>
@@ -6031,10 +6011,10 @@
         <v>114</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L37">
         <v>26</v>
@@ -6043,8 +6023,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="B38" s="13" t="s">
         <v>103</v>
       </c>
@@ -6070,10 +6052,10 @@
         <v>114</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L38">
         <v>89</v>
@@ -6082,7 +6064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
         <v>104</v>
@@ -6101,10 +6083,10 @@
         <v>114</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L39">
         <v>89</v>
@@ -6113,7 +6095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
         <v>105</v>
@@ -6132,10 +6114,10 @@
         <v>114</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L40">
         <v>89</v>
@@ -6144,7 +6126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
         <v>106</v>
@@ -6163,10 +6145,10 @@
         <v>114</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L41">
         <v>89</v>
